--- a/Arduino-Leonardo/Saved-Data/RLM/RLM_TAA.xlsx
+++ b/Arduino-Leonardo/Saved-Data/RLM/RLM_TAA.xlsx
@@ -204,7 +204,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="0">
         <v>1</v>
@@ -213,43 +213,43 @@
         <v>5</v>
       </c>
       <c r="E2" s="0">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F2" s="0">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G2" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H2" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J2" s="0">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="K2" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L2" s="0">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="M2" s="0">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="N2" s="0">
-        <v>0.66691054584370835</v>
+        <v>0.62383210758262742</v>
       </c>
       <c r="O2" s="0">
-        <v>0.0050000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="P2" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -257,7 +257,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
@@ -266,40 +266,40 @@
         <v>6</v>
       </c>
       <c r="E3" s="0">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F3" s="0">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G3" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H3" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J3" s="0">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K3" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3" s="0">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M3" s="0">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="N3" s="0">
-        <v>0.74191054584370841</v>
+        <v>0.76383210758262754</v>
       </c>
       <c r="O3" s="0">
         <v>0.0050000000000000001</v>
       </c>
       <c r="P3" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="0">
         <v>4</v>
@@ -310,7 +310,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="0">
         <v>1</v>
@@ -319,43 +319,43 @@
         <v>7</v>
       </c>
       <c r="E4" s="0">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F4" s="0">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G4" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J4" s="0">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="0">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="M4" s="0">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="N4" s="0">
-        <v>0.56691054584370826</v>
+        <v>0.58883210758262738</v>
       </c>
       <c r="O4" s="0">
         <v>0.0050000000000000001</v>
       </c>
       <c r="P4" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -363,7 +363,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="0">
         <v>2</v>
@@ -372,40 +372,40 @@
         <v>5</v>
       </c>
       <c r="E5" s="0">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F5" s="0">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G5" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H5" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5" s="0">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K5" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" s="0">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="M5" s="0">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="N5" s="0">
-        <v>0.67375166740289882</v>
+        <v>0.69932134489947273</v>
       </c>
       <c r="O5" s="0">
         <v>0.0050000000000000001</v>
       </c>
       <c r="P5" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="0">
         <v>4</v>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="0">
         <v>2</v>
@@ -425,43 +425,43 @@
         <v>6</v>
       </c>
       <c r="E6" s="0">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F6" s="0">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G6" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H6" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J6" s="0">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K6" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L6" s="0">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="M6" s="0">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="N6" s="0">
-        <v>0.72375166740289887</v>
+        <v>0.74932134489947277</v>
       </c>
       <c r="O6" s="0">
         <v>0.0050000000000000001</v>
       </c>
       <c r="P6" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -469,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="0">
         <v>2</v>
@@ -478,43 +478,43 @@
         <v>7</v>
       </c>
       <c r="E7" s="0">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F7" s="0">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G7" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H7" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" s="0">
+        <v>47</v>
+      </c>
+      <c r="K7" s="0">
         <v>33</v>
       </c>
-      <c r="K7" s="0">
-        <v>30</v>
-      </c>
       <c r="L7" s="0">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="M7" s="0">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="N7" s="0">
-        <v>0.60875166740289877</v>
+        <v>0.6643213448994727</v>
       </c>
       <c r="O7" s="0">
         <v>0.0050000000000000001</v>
       </c>
       <c r="P7" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="0">
         <v>3</v>
@@ -531,43 +531,43 @@
         <v>5</v>
       </c>
       <c r="E8" s="0">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F8" s="0">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G8" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H8" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J8" s="0">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K8" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L8" s="0">
+        <v>114</v>
+      </c>
+      <c r="M8" s="0">
         <v>132</v>
       </c>
-      <c r="M8" s="0">
-        <v>235</v>
-      </c>
       <c r="N8" s="0">
-        <v>0.62208781597998764</v>
+        <v>0.67359672340842502</v>
       </c>
       <c r="O8" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P8" s="0">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="0">
         <v>3</v>
@@ -584,43 +584,43 @@
         <v>6</v>
       </c>
       <c r="E9" s="0">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F9" s="0">
+        <v>2</v>
+      </c>
+      <c r="G9" s="0">
+        <v>12</v>
+      </c>
+      <c r="H9" s="0">
+        <v>16</v>
+      </c>
+      <c r="I9" s="0">
         <v>11</v>
       </c>
-      <c r="G9" s="0">
-        <v>16</v>
-      </c>
-      <c r="H9" s="0">
-        <v>17</v>
-      </c>
-      <c r="I9" s="0">
-        <v>8</v>
-      </c>
       <c r="J9" s="0">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="K9" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L9" s="0">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M9" s="0">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="N9" s="0">
-        <v>0.74208781597998774</v>
+        <v>0.7635967234084251</v>
       </c>
       <c r="O9" s="0">
         <v>0.0050000000000000001</v>
       </c>
       <c r="P9" s="0">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="0">
         <v>3</v>
@@ -637,43 +637,43 @@
         <v>7</v>
       </c>
       <c r="E10" s="0">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F10" s="0">
+        <v>2</v>
+      </c>
+      <c r="G10" s="0">
+        <v>12</v>
+      </c>
+      <c r="H10" s="0">
+        <v>16</v>
+      </c>
+      <c r="I10" s="0">
         <v>11</v>
       </c>
-      <c r="G10" s="0">
-        <v>16</v>
-      </c>
-      <c r="H10" s="0">
-        <v>17</v>
-      </c>
-      <c r="I10" s="0">
-        <v>9</v>
-      </c>
       <c r="J10" s="0">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K10" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L10" s="0">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="M10" s="0">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="N10" s="0">
-        <v>0.55708781597998758</v>
+        <v>0.62859672340842498</v>
       </c>
       <c r="O10" s="0">
         <v>0.0050000000000000001</v>
       </c>
       <c r="P10" s="0">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -681,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="0">
         <v>4</v>
@@ -690,43 +690,43 @@
         <v>5</v>
       </c>
       <c r="E11" s="0">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F11" s="0">
+        <v>2</v>
+      </c>
+      <c r="G11" s="0">
+        <v>12</v>
+      </c>
+      <c r="H11" s="0">
+        <v>16</v>
+      </c>
+      <c r="I11" s="0">
         <v>11</v>
       </c>
-      <c r="G11" s="0">
-        <v>16</v>
-      </c>
-      <c r="H11" s="0">
-        <v>17</v>
-      </c>
-      <c r="I11" s="0">
-        <v>9</v>
-      </c>
       <c r="J11" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K11" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L11" s="0">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M11" s="0">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N11" s="0">
-        <v>0.64710891696413098</v>
+        <v>0.62689959700976161</v>
       </c>
       <c r="O11" s="0">
-        <v>0.0050000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="P11" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="0">
         <v>4</v>
@@ -743,40 +743,40 @@
         <v>6</v>
       </c>
       <c r="E12" s="0">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F12" s="0">
+        <v>2</v>
+      </c>
+      <c r="G12" s="0">
+        <v>12</v>
+      </c>
+      <c r="H12" s="0">
+        <v>16</v>
+      </c>
+      <c r="I12" s="0">
         <v>11</v>
       </c>
-      <c r="G12" s="0">
-        <v>16</v>
-      </c>
-      <c r="H12" s="0">
-        <v>17</v>
-      </c>
-      <c r="I12" s="0">
-        <v>9</v>
-      </c>
       <c r="J12" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K12" s="0">
         <v>36</v>
       </c>
       <c r="L12" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M12" s="0">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N12" s="0">
-        <v>0.72210891696413104</v>
+        <v>0.71189959700976169</v>
       </c>
       <c r="O12" s="0">
         <v>0.0050000000000000001</v>
       </c>
       <c r="P12" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="0">
         <v>4</v>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="0">
         <v>4</v>
@@ -796,40 +796,40 @@
         <v>7</v>
       </c>
       <c r="E13" s="0">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F13" s="0">
+        <v>2</v>
+      </c>
+      <c r="G13" s="0">
+        <v>12</v>
+      </c>
+      <c r="H13" s="0">
+        <v>16</v>
+      </c>
+      <c r="I13" s="0">
         <v>11</v>
       </c>
-      <c r="G13" s="0">
-        <v>16</v>
-      </c>
-      <c r="H13" s="0">
-        <v>17</v>
-      </c>
-      <c r="I13" s="0">
-        <v>9</v>
-      </c>
       <c r="J13" s="0">
+        <v>39</v>
+      </c>
+      <c r="K13" s="0">
         <v>28</v>
       </c>
-      <c r="K13" s="0">
-        <v>29</v>
-      </c>
       <c r="L13" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M13" s="0">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N13" s="0">
-        <v>0.57710891696413091</v>
+        <v>0.56689959700976156</v>
       </c>
       <c r="O13" s="0">
         <v>0.0050000000000000001</v>
       </c>
       <c r="P13" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="0">
         <v>4</v>
@@ -840,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="0">
         <v>5</v>
@@ -849,37 +849,37 @@
         <v>5</v>
       </c>
       <c r="E14" s="0">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F14" s="0">
+        <v>2</v>
+      </c>
+      <c r="G14" s="0">
+        <v>12</v>
+      </c>
+      <c r="H14" s="0">
+        <v>16</v>
+      </c>
+      <c r="I14" s="0">
         <v>11</v>
       </c>
-      <c r="G14" s="0">
-        <v>16</v>
-      </c>
-      <c r="H14" s="0">
-        <v>17</v>
-      </c>
-      <c r="I14" s="0">
-        <v>9</v>
-      </c>
       <c r="J14" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K14" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L14" s="0">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M14" s="0">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="N14" s="0">
-        <v>0.64660540005879819</v>
+        <v>0.65805258076941708</v>
       </c>
       <c r="O14" s="0">
-        <v>0.0050000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="P14" s="0">
         <v>25</v>
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="0">
         <v>5</v>
@@ -902,34 +902,34 @@
         <v>6</v>
       </c>
       <c r="E15" s="0">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F15" s="0">
+        <v>2</v>
+      </c>
+      <c r="G15" s="0">
+        <v>12</v>
+      </c>
+      <c r="H15" s="0">
+        <v>16</v>
+      </c>
+      <c r="I15" s="0">
         <v>11</v>
       </c>
-      <c r="G15" s="0">
-        <v>16</v>
-      </c>
-      <c r="H15" s="0">
-        <v>17</v>
-      </c>
-      <c r="I15" s="0">
-        <v>9</v>
-      </c>
       <c r="J15" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K15" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L15" s="0">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M15" s="0">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="N15" s="0">
-        <v>0.70160540005879823</v>
+        <v>0.68305258076941711</v>
       </c>
       <c r="O15" s="0">
         <v>0.0050000000000000001</v>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="0">
         <v>5</v>
@@ -955,34 +955,34 @@
         <v>7</v>
       </c>
       <c r="E16" s="0">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F16" s="0">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G16" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H16" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J16" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K16" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L16" s="0">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M16" s="0">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="N16" s="0">
-        <v>0.58160540005879813</v>
+        <v>0.60305258076941703</v>
       </c>
       <c r="O16" s="0">
         <v>0.0050000000000000001</v>
@@ -991,7 +991,7 @@
         <v>25</v>
       </c>
       <c r="Q16" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
